--- a/amanzi/aqua/xl/python XL test.xlsx
+++ b/amanzi/aqua/xl/python XL test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tlaltecuhtli/repos/GitHub/topa-development/amanzi/aqua/xl/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20EDD3D-45E7-7041-B123-75022ABBBCC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8380" yWindow="460" windowWidth="22120" windowHeight="22120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="requirements - PASS" sheetId="1" r:id="rId1"/>
@@ -12,20 +18,20 @@
     <sheet name="requirements - NULL" sheetId="3" r:id="rId3"/>
     <sheet name="provenance" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Summary or requirements PASSED</t>
+    <t>Summary of requirements PASSED</t>
   </si>
   <si>
-    <t>Summary or requirements FAIL</t>
+    <t>Summary of requirements FAIL</t>
   </si>
   <si>
-    <t>Summary or requirements NULL</t>
+    <t>Summary of requirements NULL</t>
   </si>
   <si>
     <t>AMANZI: The Multi-Process HPC Simulator</t>
@@ -104,11 +110,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yy/mm/dd hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,15 +529,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -503,16 +553,2568 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <f xml:space="preserve"> CHAR( A4 )</f>
+        <v>_x0001_</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f xml:space="preserve">  A4 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
+        <f xml:space="preserve"> CHAR( A5 )</f>
+        <v>_x0002_</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ref="A6:A11" si="0" xml:space="preserve">  A5 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B69" si="1" xml:space="preserve"> CHAR( A6 )</f>
+        <v>_x0003_</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0004_</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0005_</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0006_</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0007_</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0008_</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" ref="A12:A75" si="2" xml:space="preserve">  A11 + 1</f>
+        <v>9</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">	</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>_x000B_</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>_x000C_</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>_x000D_</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>_x000E_</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>_x000F_</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0010_</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0011_</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0012_</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0013_</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0014_</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0015_</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0016_</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0017_</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0018_</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0019_</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>_x001A_</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>_x001B_</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>_x001C_</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>_x001D_</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>_x001E_</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>_x001F_</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>$</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="1"/>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="1"/>
+        <v>;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="1"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="1"/>
+        <v>&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>@</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" ref="B70:B133" si="3" xml:space="preserve"> CHAR( A70 )</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="3"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="3"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="3"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" ref="A76:A139" si="4" xml:space="preserve">  A75 + 1</f>
+        <v>73</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="3"/>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="3"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="3"/>
+        <v>K</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="3"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="3"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="3"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="3"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="3"/>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="3"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="3"/>
+        <v>U</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="3"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="3"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="3"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="3"/>
+        <v>[</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="3"/>
+        <v>\</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="3"/>
+        <v>]</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="3"/>
+        <v>^</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="3"/>
+        <v>_</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="3"/>
+        <v>`</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="3"/>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="3"/>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="3"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="3"/>
+        <v>i</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="3"/>
+        <v>j</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="3"/>
+        <v>k</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="3"/>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="3"/>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="3"/>
+        <v>n</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="3"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="3"/>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="3"/>
+        <v>q</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="3"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="3"/>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="3"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="3"/>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="3"/>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="3"/>
+        <v>w</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="3"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="3"/>
+        <v>z</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="3"/>
+        <v>{</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="3"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="3"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="3"/>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="3"/>
+        <v></v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="3"/>
+        <v>Ä</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="3"/>
+        <v>Å</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="3"/>
+        <v>Ç</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" ref="B134:B197" si="5" xml:space="preserve"> CHAR( A134 )</f>
+        <v>É</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="5"/>
+        <v>Ñ</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="5"/>
+        <v>Ö</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="5"/>
+        <v>Ü</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="5"/>
+        <v>á</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="5"/>
+        <v>à</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" ref="A140:A203" si="6" xml:space="preserve">  A139 + 1</f>
+        <v>137</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="5"/>
+        <v>â</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="5"/>
+        <v>ä</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="5"/>
+        <v>ã</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="5"/>
+        <v>å</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="5"/>
+        <v>ç</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="5"/>
+        <v>é</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="5"/>
+        <v>è</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="5"/>
+        <v>ê</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="5"/>
+        <v>ë</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="5"/>
+        <v>í</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="5"/>
+        <v>ì</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="5"/>
+        <v>î</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="5"/>
+        <v>ï</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="5"/>
+        <v>ñ</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="5"/>
+        <v>ó</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="5"/>
+        <v>ò</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="5"/>
+        <v>ô</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="5"/>
+        <v>ö</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="5"/>
+        <v>õ</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="5"/>
+        <v>ú</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="6"/>
+        <v>157</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="5"/>
+        <v>ù</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="5"/>
+        <v>û</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="5"/>
+        <v>ü</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="5"/>
+        <v>†</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="5"/>
+        <v>°</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="5"/>
+        <v>¢</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="5"/>
+        <v>£</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="5"/>
+        <v>§</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="5"/>
+        <v>•</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="5"/>
+        <v>¶</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="6"/>
+        <v>167</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="5"/>
+        <v>ß</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="5"/>
+        <v>®</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="5"/>
+        <v>©</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="5"/>
+        <v>™</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="5"/>
+        <v>´</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="5"/>
+        <v>¨</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="5"/>
+        <v>≠</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="5"/>
+        <v>Æ</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="5"/>
+        <v>Ø</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="5"/>
+        <v>∞</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="5"/>
+        <v>±</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="5"/>
+        <v>≤</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="5"/>
+        <v>≥</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="5"/>
+        <v>¥</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="5"/>
+        <v>µ</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="5"/>
+        <v>∂</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="5"/>
+        <v>∑</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="5"/>
+        <v>∏</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="5"/>
+        <v>π</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="5"/>
+        <v>∫</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="5"/>
+        <v>ª</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="5"/>
+        <v>º</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="5"/>
+        <v>Ω</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="5"/>
+        <v>æ</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="5"/>
+        <v>ø</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="5"/>
+        <v>¿</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="5"/>
+        <v>¡</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="5"/>
+        <v>¬</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" ref="B198:B261" si="7" xml:space="preserve"> CHAR( A198 )</f>
+        <v>√</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="7"/>
+        <v>ƒ</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="7"/>
+        <v>≈</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="7"/>
+        <v>∆</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="7"/>
+        <v>«</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="7"/>
+        <v>»</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" ref="A204:A267" si="8" xml:space="preserve">  A203 + 1</f>
+        <v>201</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="7"/>
+        <v>…</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="7"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="7"/>
+        <v>À</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="7"/>
+        <v>Ã</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="7"/>
+        <v>Õ</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="7"/>
+        <v>Œ</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="7"/>
+        <v>œ</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="7"/>
+        <v>–</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="8"/>
+        <v>209</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="7"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="7"/>
+        <v>“</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="7"/>
+        <v>”</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="7"/>
+        <v>‘</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="7"/>
+        <v>’</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="8"/>
+        <v>214</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="7"/>
+        <v>÷</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="8"/>
+        <v>215</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="7"/>
+        <v>◊</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="7"/>
+        <v>ÿ</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="7"/>
+        <v>Ÿ</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="7"/>
+        <v>⁄</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="7"/>
+        <v>€</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="7"/>
+        <v>‹</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="8"/>
+        <v>221</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="7"/>
+        <v>›</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="7"/>
+        <v>ﬁ</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="8"/>
+        <v>223</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="7"/>
+        <v>ﬂ</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="7"/>
+        <v>‡</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="7"/>
+        <v>·</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="7"/>
+        <v>‚</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="7"/>
+        <v>„</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="8"/>
+        <v>228</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="7"/>
+        <v>‰</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="7"/>
+        <v>Â</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="7"/>
+        <v>Ê</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="7"/>
+        <v>Á</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="7"/>
+        <v>Ë</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="7"/>
+        <v>È</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="8"/>
+        <v>234</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="7"/>
+        <v>Í</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="7"/>
+        <v>Î</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="7"/>
+        <v>Ï</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="7"/>
+        <v>Ì</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="7"/>
+        <v>Ó</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="8"/>
+        <v>239</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="7"/>
+        <v>Ô</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="7"/>
+        <v></v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="7"/>
+        <v>Ò</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="8"/>
+        <v>242</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="7"/>
+        <v>Ú</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="7"/>
+        <v>Û</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="7"/>
+        <v>Ù</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="7"/>
+        <v>ı</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="8"/>
+        <v>246</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="7"/>
+        <v>ˆ</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="8"/>
+        <v>247</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="7"/>
+        <v>˜</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="8"/>
+        <v>248</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="7"/>
+        <v>¯</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="7"/>
+        <v>˘</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="7"/>
+        <v>˙</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="8"/>
+        <v>251</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="7"/>
+        <v>˚</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="8"/>
+        <v>252</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="7"/>
+        <v>¸</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="8"/>
+        <v>253</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="7"/>
+        <v>˝</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="8"/>
+        <v>254</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="7"/>
+        <v>˛</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="7"/>
+        <v>ˇ</v>
       </c>
     </row>
   </sheetData>
@@ -527,28 +3129,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -556,7 +3160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -564,7 +3168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -572,12 +3176,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -585,7 +3189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -593,7 +3197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -601,85 +3205,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>43432.43723497802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>43432.543403143231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <f> INFO( "system" )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" t="str">
+        <f ca="1">INFO( "system" )</f>
+        <v>mac</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <f> INFO( "recalc" )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" t="str">
+        <f ca="1">INFO( "recalc" )</f>
+        <v>Automatic</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <f> INFO( "numfile" )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <f ca="1">INFO( "numfile" )</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <f> INFO( "origin" )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" t="str">
+        <f ca="1">INFO( "origin" )</f>
+        <v>$A:$A$9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <f> INFO( "release" )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" t="str">
+        <f ca="1">INFO( "release" )</f>
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <f> INFO( "directory" )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" t="str">
+        <f ca="1">INFO( "directory" )</f>
+        <v>/Users/l127914/Library/Containers/com.microsoft.Excel/Data/Documents/</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <f> INFO( "osversion" )</f>
-        <v>0</v>
+      <c r="B21" t="str">
+        <f ca="1">INFO( "osversion" )</f>
+        <v>Macintosh (Intel) Version 10.12.6 (Build 16G1618)</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
